--- a/Ownership Research.xlsx
+++ b/Ownership Research.xlsx
@@ -1,42 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vebholic-my.sharepoint.com/personal/gagandeep_vebholic_com/Documents/Interview Assignments/Research Assignment - Level 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{9E6EA6F8-E129-A843-A3B3-727A9C4D92B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16789138-61D1-3B44-9E39-F404C73F70F5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9854F0A2-01F1-48DA-AF51-3631BBFEEDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3BE5FC41-1A90-4F69-8744-905FAB49D20D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3BE5FC41-1A90-4F69-8744-905FAB49D20D}"/>
   </bookViews>
   <sheets>
     <sheet name="generators" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_OwnershipResearch.xlsxTable11" hidden="1">Table1[]</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="130" r:id="rId3"/>
+    <pivotCache cacheId="131" r:id="rId4"/>
+    <pivotCache cacheId="132" r:id="rId5"/>
+    <pivotCache cacheId="141" r:id="rId6"/>
+    <pivotCache cacheId="175" r:id="rId7"/>
+    <pivotCache cacheId="230" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Table1" name="Table1" connection="WorksheetConnection_Ownership Research.xlsx!Table1"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{5644483B-434E-467B-B42F-8922A309CE63}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{C1EADDC9-46DC-481D-A447-9E53897BD2C0}" name="WorksheetConnection_Ownership Research.xlsx!Table1" type="102" refreshedVersion="8" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Table1" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_OwnershipResearch.xlsxTable11"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="189">
   <si>
     <t>GENERATOR_ID</t>
   </si>
@@ -561,6 +592,48 @@
   </si>
   <si>
     <t>Haldimand-norfolk</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of GENERATOR_ID</t>
+  </si>
+  <si>
+    <t>1. Each country has 1 GENERATOR</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>Generator Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generator </t>
+  </si>
+  <si>
+    <t>14 Solar &amp; 8 Storage</t>
+  </si>
+  <si>
+    <t>AB has Highest no. of Generators</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>13 Studies were under going and AB,ON states has max of it</t>
+  </si>
+  <si>
+    <t>Capacity_MW</t>
+  </si>
+  <si>
+    <t>200 Capacity_MW were highest in numbers &amp; 20 also</t>
   </si>
 </sst>
 </file>
@@ -884,7 +957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -999,6 +1072,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1044,9 +1228,27 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1094,10 +1296,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1114,6 +1316,1672 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ankit tomar" refreshedDate="45784.860007870368" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{04D2DFF2-D6BE-43D0-8463-43EBDA00C99E}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Table1].[GENERATOR_ID].[GENERATOR_ID]" caption="GENERATOR_ID" numFmtId="0" level="1">
+      <sharedItems count="25">
+        <s v="or:generator:228545"/>
+        <s v="or:generator:229724"/>
+        <s v="or:generator:229747"/>
+        <s v="or:generator:231853"/>
+        <s v="or:generator:258440"/>
+        <s v="or:generator:260495"/>
+        <s v="or:generator:260623"/>
+        <s v="or:generator:260627"/>
+        <s v="or:generator:260979"/>
+        <s v="or:generator:261283"/>
+        <s v="or:generator:262036"/>
+        <s v="or:generator:262234"/>
+        <s v="or:generator:262710"/>
+        <s v="or:generator:262870"/>
+        <s v="or:generator:262964"/>
+        <s v="or:generator:300676"/>
+        <s v="or:generator:436193"/>
+        <s v="or:generator:437172"/>
+        <s v="or:generator:437280"/>
+        <s v="or:generator:439819"/>
+        <s v="or:generator:440160"/>
+        <s v="or:generator:444417"/>
+        <s v="or:generator:444420"/>
+        <s v="or:generator:444432"/>
+        <s v="or:generator:444441"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Table1].[TYPE].[TYPE]" caption="TYPE" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="4">
+        <s v="Natural Gas"/>
+        <s v="Solar"/>
+        <s v="Storage"/>
+        <s v="Wind"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Count of GENERATOR_ID]" caption="Count of GENERATOR_ID" numFmtId="0" hierarchy="22" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="27">
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_ID]" caption="GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_ID].[All]" allUniqueName="[Table1].[GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_NAME]" caption="GENERATOR_NAME" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_NAME].[All]" allUniqueName="[Table1].[GENERATOR_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[PROJECT_NAME]" caption="PROJECT_NAME" attribute="1" defaultMemberUniqueName="[Table1].[PROJECT_NAME].[All]" allUniqueName="[Table1].[PROJECT_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TYPE]" caption="TYPE" attribute="1" defaultMemberUniqueName="[Table1].[TYPE].[All]" allUniqueName="[Table1].[TYPE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table1].[CAPACITY_MW]" caption="CAPACITY_MW" attribute="1" defaultMemberUniqueName="[Table1].[CAPACITY_MW].[All]" allUniqueName="[Table1].[CAPACITY_MW].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[STATUS]" caption="STATUS" attribute="1" defaultMemberUniqueName="[Table1].[STATUS].[All]" allUniqueName="[Table1].[STATUS].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[Table1].[STATE].[All]" allUniqueName="[Table1].[STATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[Table1].[COUNTY].[All]" allUniqueName="[Table1].[COUNTY].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[ISO]" caption="ISO" attribute="1" defaultMemberUniqueName="[Table1].[ISO].[All]" allUniqueName="[Table1].[ISO].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_PLANT_ID]" caption="EIA_PLANT_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_PLANT_ID].[All]" allUniqueName="[Table1].[EIA_PLANT_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[QUEUE_ID]" caption="QUEUE_ID" attribute="1" defaultMemberUniqueName="[Table1].[QUEUE_ID].[All]" allUniqueName="[Table1].[QUEUE_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_GENERATOR_ID]" caption="EIA_GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" allUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[FIRST_POWER_DATE]" caption="FIRST_POWER_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[FIRST_POWER_DATE].[All]" allUniqueName="[Table1].[FIRST_POWER_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[ASSUMED_RETIREMENT_DATE]" caption="ASSUMED_RETIREMENT_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[REPORTED_RETIREMENT_DATE]" caption="REPORTED_RETIREMENT_DATE" attribute="1" defaultMemberUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[POINT_OF_INTERCONNECTION]" caption="POINT_OF_INTERCONNECTION" attribute="1" defaultMemberUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" allUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TRANSMISSION_OWNER]" caption="TRANSMISSION_OWNER" attribute="1" defaultMemberUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" allUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[Owner]" caption="Owner" attribute="1" defaultMemberUniqueName="[Table1].[Owner].[All]" allUniqueName="[Table1].[Owner].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[SOURCE]" caption="SOURCE" attribute="1" defaultMemberUniqueName="[Table1].[SOURCE].[All]" allUniqueName="[Table1].[SOURCE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table1]" caption="__XL_Count Table1" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Count of TYPE]" caption="Count of TYPE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_ID]" caption="Count of GENERATOR_ID" measure="1" displayFolder="" measureGroup="Table1" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_NAME]" caption="Count of GENERATOR_NAME" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of STATE]" caption="Count of STATE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of COUNTY]" caption="Count of COUNTY" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of CAPACITY_MW]" caption="Sum of CAPACITY_MW" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table1" uniqueName="[Table1]" caption="Table1"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table1" caption="Table1"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ankit tomar" refreshedDate="45784.858917592595" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{32505AC3-98D6-418B-90C7-F6A81D920536}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[Table1].[STATE].[STATE]" caption="STATE" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="13">
+        <s v="AB"/>
+        <s v="DE"/>
+        <s v="IL"/>
+        <s v="IN"/>
+        <s v="MD"/>
+        <s v="MO"/>
+        <s v="NC"/>
+        <s v="NJ"/>
+        <s v="OH"/>
+        <s v="ON"/>
+        <s v="PA"/>
+        <s v="VA"/>
+        <s v="WI"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Count of GENERATOR_ID]" caption="Count of GENERATOR_ID" numFmtId="0" hierarchy="22" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="27">
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_ID]" caption="GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_ID].[All]" allUniqueName="[Table1].[GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_NAME]" caption="GENERATOR_NAME" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_NAME].[All]" allUniqueName="[Table1].[GENERATOR_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[PROJECT_NAME]" caption="PROJECT_NAME" attribute="1" defaultMemberUniqueName="[Table1].[PROJECT_NAME].[All]" allUniqueName="[Table1].[PROJECT_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TYPE]" caption="TYPE" attribute="1" defaultMemberUniqueName="[Table1].[TYPE].[All]" allUniqueName="[Table1].[TYPE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[CAPACITY_MW]" caption="CAPACITY_MW" attribute="1" defaultMemberUniqueName="[Table1].[CAPACITY_MW].[All]" allUniqueName="[Table1].[CAPACITY_MW].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[STATUS]" caption="STATUS" attribute="1" defaultMemberUniqueName="[Table1].[STATUS].[All]" allUniqueName="[Table1].[STATUS].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[Table1].[STATE].[All]" allUniqueName="[Table1].[STATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table1].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[Table1].[COUNTY].[All]" allUniqueName="[Table1].[COUNTY].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[ISO]" caption="ISO" attribute="1" defaultMemberUniqueName="[Table1].[ISO].[All]" allUniqueName="[Table1].[ISO].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_PLANT_ID]" caption="EIA_PLANT_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_PLANT_ID].[All]" allUniqueName="[Table1].[EIA_PLANT_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[QUEUE_ID]" caption="QUEUE_ID" attribute="1" defaultMemberUniqueName="[Table1].[QUEUE_ID].[All]" allUniqueName="[Table1].[QUEUE_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_GENERATOR_ID]" caption="EIA_GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" allUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[FIRST_POWER_DATE]" caption="FIRST_POWER_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[FIRST_POWER_DATE].[All]" allUniqueName="[Table1].[FIRST_POWER_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[ASSUMED_RETIREMENT_DATE]" caption="ASSUMED_RETIREMENT_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[REPORTED_RETIREMENT_DATE]" caption="REPORTED_RETIREMENT_DATE" attribute="1" defaultMemberUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[POINT_OF_INTERCONNECTION]" caption="POINT_OF_INTERCONNECTION" attribute="1" defaultMemberUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" allUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TRANSMISSION_OWNER]" caption="TRANSMISSION_OWNER" attribute="1" defaultMemberUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" allUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[Owner]" caption="Owner" attribute="1" defaultMemberUniqueName="[Table1].[Owner].[All]" allUniqueName="[Table1].[Owner].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[SOURCE]" caption="SOURCE" attribute="1" defaultMemberUniqueName="[Table1].[SOURCE].[All]" allUniqueName="[Table1].[SOURCE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table1]" caption="__XL_Count Table1" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Count of TYPE]" caption="Count of TYPE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_ID]" caption="Count of GENERATOR_ID" measure="1" displayFolder="" measureGroup="Table1" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_NAME]" caption="Count of GENERATOR_NAME" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of STATE]" caption="Count of STATE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of COUNTY]" caption="Count of COUNTY" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of CAPACITY_MW]" caption="Sum of CAPACITY_MW" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table1" uniqueName="[Table1]" caption="Table1"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table1" caption="Table1"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ankit tomar" refreshedDate="45784.858598842591" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{48B33FE7-D3D8-474C-AB2F-9BD6BDCE3561}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Table1].[STATE].[STATE]" caption="STATE" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="13">
+        <s v="AB"/>
+        <s v="DE"/>
+        <s v="IL"/>
+        <s v="IN"/>
+        <s v="MD"/>
+        <s v="MO"/>
+        <s v="NC"/>
+        <s v="NJ"/>
+        <s v="OH"/>
+        <s v="ON"/>
+        <s v="PA"/>
+        <s v="VA"/>
+        <s v="WI"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Count of GENERATOR_ID]" caption="Count of GENERATOR_ID" numFmtId="0" hierarchy="22" level="32767"/>
+    <cacheField name="[Table1].[COUNTY].[COUNTY]" caption="COUNTY" numFmtId="0" hierarchy="7" level="1">
+      <sharedItems count="25">
+        <s v="Anne Arundel"/>
+        <s v="Bergen"/>
+        <s v="Bluffton"/>
+        <s v="Charlotte"/>
+        <s v="Clark"/>
+        <s v="Columbia"/>
+        <s v="Cypress"/>
+        <s v="Elk"/>
+        <s v="Fitzroy Harbour"/>
+        <s v="Fulton"/>
+        <s v="Haldimand-norfolk"/>
+        <s v="Hertford"/>
+        <s v="King George"/>
+        <s v="Kitscoty"/>
+        <s v="Lac Ste. Anne"/>
+        <s v="LaPorte"/>
+        <s v="Louisa"/>
+        <s v="Montgomery"/>
+        <s v="Oxford"/>
+        <s v="Randolph"/>
+        <s v="Rock"/>
+        <s v="Saline"/>
+        <s v="Sturgeon"/>
+        <s v="Sussex"/>
+        <s v="Wellington"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="27">
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_ID]" caption="GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_ID].[All]" allUniqueName="[Table1].[GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_NAME]" caption="GENERATOR_NAME" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_NAME].[All]" allUniqueName="[Table1].[GENERATOR_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[PROJECT_NAME]" caption="PROJECT_NAME" attribute="1" defaultMemberUniqueName="[Table1].[PROJECT_NAME].[All]" allUniqueName="[Table1].[PROJECT_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TYPE]" caption="TYPE" attribute="1" defaultMemberUniqueName="[Table1].[TYPE].[All]" allUniqueName="[Table1].[TYPE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[CAPACITY_MW]" caption="CAPACITY_MW" attribute="1" defaultMemberUniqueName="[Table1].[CAPACITY_MW].[All]" allUniqueName="[Table1].[CAPACITY_MW].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[STATUS]" caption="STATUS" attribute="1" defaultMemberUniqueName="[Table1].[STATUS].[All]" allUniqueName="[Table1].[STATUS].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[Table1].[STATE].[All]" allUniqueName="[Table1].[STATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table1].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[Table1].[COUNTY].[All]" allUniqueName="[Table1].[COUNTY].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table1].[ISO]" caption="ISO" attribute="1" defaultMemberUniqueName="[Table1].[ISO].[All]" allUniqueName="[Table1].[ISO].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_PLANT_ID]" caption="EIA_PLANT_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_PLANT_ID].[All]" allUniqueName="[Table1].[EIA_PLANT_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[QUEUE_ID]" caption="QUEUE_ID" attribute="1" defaultMemberUniqueName="[Table1].[QUEUE_ID].[All]" allUniqueName="[Table1].[QUEUE_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_GENERATOR_ID]" caption="EIA_GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" allUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[FIRST_POWER_DATE]" caption="FIRST_POWER_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[FIRST_POWER_DATE].[All]" allUniqueName="[Table1].[FIRST_POWER_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[ASSUMED_RETIREMENT_DATE]" caption="ASSUMED_RETIREMENT_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[REPORTED_RETIREMENT_DATE]" caption="REPORTED_RETIREMENT_DATE" attribute="1" defaultMemberUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[POINT_OF_INTERCONNECTION]" caption="POINT_OF_INTERCONNECTION" attribute="1" defaultMemberUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" allUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TRANSMISSION_OWNER]" caption="TRANSMISSION_OWNER" attribute="1" defaultMemberUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" allUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[Owner]" caption="Owner" attribute="1" defaultMemberUniqueName="[Table1].[Owner].[All]" allUniqueName="[Table1].[Owner].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[SOURCE]" caption="SOURCE" attribute="1" defaultMemberUniqueName="[Table1].[SOURCE].[All]" allUniqueName="[Table1].[SOURCE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table1]" caption="__XL_Count Table1" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Count of TYPE]" caption="Count of TYPE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_ID]" caption="Count of GENERATOR_ID" measure="1" displayFolder="" measureGroup="Table1" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_NAME]" caption="Count of GENERATOR_NAME" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of STATE]" caption="Count of STATE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of COUNTY]" caption="Count of COUNTY" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of CAPACITY_MW]" caption="Sum of CAPACITY_MW" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table1" uniqueName="[Table1]" caption="Table1"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table1" caption="Table1"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ankit tomar" refreshedDate="45784.861931944448" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{864C8262-2DE3-42A9-8D0B-BAC6E10ADAB3}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Table1].[STATE].[STATE]" caption="STATE" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="13">
+        <s v="AB"/>
+        <s v="DE"/>
+        <s v="IL"/>
+        <s v="IN"/>
+        <s v="MD"/>
+        <s v="MO"/>
+        <s v="NC"/>
+        <s v="NJ"/>
+        <s v="OH"/>
+        <s v="ON"/>
+        <s v="PA"/>
+        <s v="VA"/>
+        <s v="WI"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Count of GENERATOR_ID]" caption="Count of GENERATOR_ID" numFmtId="0" hierarchy="22" level="32767"/>
+    <cacheField name="[Table1].[STATUS].[STATUS]" caption="STATUS" numFmtId="0" hierarchy="5" level="1">
+      <sharedItems count="4">
+        <s v="IA Executed"/>
+        <s v="In Construction"/>
+        <s v="Studies Undergoing"/>
+        <s v="Suspended"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="27">
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_ID]" caption="GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_ID].[All]" allUniqueName="[Table1].[GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_NAME]" caption="GENERATOR_NAME" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_NAME].[All]" allUniqueName="[Table1].[GENERATOR_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[PROJECT_NAME]" caption="PROJECT_NAME" attribute="1" defaultMemberUniqueName="[Table1].[PROJECT_NAME].[All]" allUniqueName="[Table1].[PROJECT_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TYPE]" caption="TYPE" attribute="1" defaultMemberUniqueName="[Table1].[TYPE].[All]" allUniqueName="[Table1].[TYPE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[CAPACITY_MW]" caption="CAPACITY_MW" attribute="1" defaultMemberUniqueName="[Table1].[CAPACITY_MW].[All]" allUniqueName="[Table1].[CAPACITY_MW].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[STATUS]" caption="STATUS" attribute="1" defaultMemberUniqueName="[Table1].[STATUS].[All]" allUniqueName="[Table1].[STATUS].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table1].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[Table1].[STATE].[All]" allUniqueName="[Table1].[STATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table1].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[Table1].[COUNTY].[All]" allUniqueName="[Table1].[COUNTY].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[ISO]" caption="ISO" attribute="1" defaultMemberUniqueName="[Table1].[ISO].[All]" allUniqueName="[Table1].[ISO].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_PLANT_ID]" caption="EIA_PLANT_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_PLANT_ID].[All]" allUniqueName="[Table1].[EIA_PLANT_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[QUEUE_ID]" caption="QUEUE_ID" attribute="1" defaultMemberUniqueName="[Table1].[QUEUE_ID].[All]" allUniqueName="[Table1].[QUEUE_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_GENERATOR_ID]" caption="EIA_GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" allUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[FIRST_POWER_DATE]" caption="FIRST_POWER_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[FIRST_POWER_DATE].[All]" allUniqueName="[Table1].[FIRST_POWER_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[ASSUMED_RETIREMENT_DATE]" caption="ASSUMED_RETIREMENT_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[REPORTED_RETIREMENT_DATE]" caption="REPORTED_RETIREMENT_DATE" attribute="1" defaultMemberUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[POINT_OF_INTERCONNECTION]" caption="POINT_OF_INTERCONNECTION" attribute="1" defaultMemberUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" allUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TRANSMISSION_OWNER]" caption="TRANSMISSION_OWNER" attribute="1" defaultMemberUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" allUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[Owner]" caption="Owner" attribute="1" defaultMemberUniqueName="[Table1].[Owner].[All]" allUniqueName="[Table1].[Owner].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[SOURCE]" caption="SOURCE" attribute="1" defaultMemberUniqueName="[Table1].[SOURCE].[All]" allUniqueName="[Table1].[SOURCE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table1]" caption="__XL_Count Table1" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Count of TYPE]" caption="Count of TYPE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_ID]" caption="Count of GENERATOR_ID" measure="1" displayFolder="" measureGroup="Table1" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_NAME]" caption="Count of GENERATOR_NAME" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of STATE]" caption="Count of STATE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of COUNTY]" caption="Count of COUNTY" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of CAPACITY_MW]" caption="Sum of CAPACITY_MW" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table1" uniqueName="[Table1]" caption="Table1"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table1" caption="Table1"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ankit tomar" refreshedDate="45784.865434953703" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{97D4E4DD-93C7-403B-AD40-2F31D645F5D4}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[Measures].[Count of GENERATOR_ID]" caption="Count of GENERATOR_ID" numFmtId="0" hierarchy="22" level="32767"/>
+    <cacheField name="[Table1].[CAPACITY_MW].[CAPACITY_MW]" caption="CAPACITY_MW" numFmtId="0" hierarchy="4" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5" maxValue="250" count="18">
+        <n v="5"/>
+        <n v="7.25"/>
+        <n v="10"/>
+        <n v="14.04"/>
+        <n v="20"/>
+        <n v="43"/>
+        <n v="50"/>
+        <n v="80"/>
+        <n v="100"/>
+        <n v="125"/>
+        <n v="134.66666666699999"/>
+        <n v="150"/>
+        <n v="160"/>
+        <n v="167"/>
+        <n v="199"/>
+        <n v="200"/>
+        <n v="211"/>
+        <n v="250"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="27">
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_ID]" caption="GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_ID].[All]" allUniqueName="[Table1].[GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_NAME]" caption="GENERATOR_NAME" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_NAME].[All]" allUniqueName="[Table1].[GENERATOR_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[PROJECT_NAME]" caption="PROJECT_NAME" attribute="1" defaultMemberUniqueName="[Table1].[PROJECT_NAME].[All]" allUniqueName="[Table1].[PROJECT_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TYPE]" caption="TYPE" attribute="1" defaultMemberUniqueName="[Table1].[TYPE].[All]" allUniqueName="[Table1].[TYPE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[CAPACITY_MW]" caption="CAPACITY_MW" attribute="1" defaultMemberUniqueName="[Table1].[CAPACITY_MW].[All]" allUniqueName="[Table1].[CAPACITY_MW].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="5" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table1].[STATUS]" caption="STATUS" attribute="1" defaultMemberUniqueName="[Table1].[STATUS].[All]" allUniqueName="[Table1].[STATUS].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[Table1].[STATE].[All]" allUniqueName="[Table1].[STATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[Table1].[COUNTY].[All]" allUniqueName="[Table1].[COUNTY].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[ISO]" caption="ISO" attribute="1" defaultMemberUniqueName="[Table1].[ISO].[All]" allUniqueName="[Table1].[ISO].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_PLANT_ID]" caption="EIA_PLANT_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_PLANT_ID].[All]" allUniqueName="[Table1].[EIA_PLANT_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[QUEUE_ID]" caption="QUEUE_ID" attribute="1" defaultMemberUniqueName="[Table1].[QUEUE_ID].[All]" allUniqueName="[Table1].[QUEUE_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_GENERATOR_ID]" caption="EIA_GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" allUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[FIRST_POWER_DATE]" caption="FIRST_POWER_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[FIRST_POWER_DATE].[All]" allUniqueName="[Table1].[FIRST_POWER_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[ASSUMED_RETIREMENT_DATE]" caption="ASSUMED_RETIREMENT_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[REPORTED_RETIREMENT_DATE]" caption="REPORTED_RETIREMENT_DATE" attribute="1" defaultMemberUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[POINT_OF_INTERCONNECTION]" caption="POINT_OF_INTERCONNECTION" attribute="1" defaultMemberUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" allUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TRANSMISSION_OWNER]" caption="TRANSMISSION_OWNER" attribute="1" defaultMemberUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" allUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[Owner]" caption="Owner" attribute="1" defaultMemberUniqueName="[Table1].[Owner].[All]" allUniqueName="[Table1].[Owner].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[SOURCE]" caption="SOURCE" attribute="1" defaultMemberUniqueName="[Table1].[SOURCE].[All]" allUniqueName="[Table1].[SOURCE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table1]" caption="__XL_Count Table1" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Count of TYPE]" caption="Count of TYPE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_ID]" caption="Count of GENERATOR_ID" measure="1" displayFolder="" measureGroup="Table1" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_NAME]" caption="Count of GENERATOR_NAME" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of STATE]" caption="Count of STATE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of COUNTY]" caption="Count of COUNTY" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of CAPACITY_MW]" caption="Sum of CAPACITY_MW" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table1" uniqueName="[Table1]" caption="Table1"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table1" caption="Table1"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ankit tomar" refreshedDate="45784.868254976849" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{446D9D58-AFC7-4DC1-A202-9F1060DEBC41}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="27">
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_ID]" caption="GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_ID].[All]" allUniqueName="[Table1].[GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[GENERATOR_NAME]" caption="GENERATOR_NAME" attribute="1" defaultMemberUniqueName="[Table1].[GENERATOR_NAME].[All]" allUniqueName="[Table1].[GENERATOR_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[PROJECT_NAME]" caption="PROJECT_NAME" attribute="1" defaultMemberUniqueName="[Table1].[PROJECT_NAME].[All]" allUniqueName="[Table1].[PROJECT_NAME].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TYPE]" caption="TYPE" attribute="1" defaultMemberUniqueName="[Table1].[TYPE].[All]" allUniqueName="[Table1].[TYPE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[CAPACITY_MW]" caption="CAPACITY_MW" attribute="1" defaultMemberUniqueName="[Table1].[CAPACITY_MW].[All]" allUniqueName="[Table1].[CAPACITY_MW].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[STATUS]" caption="STATUS" attribute="1" defaultMemberUniqueName="[Table1].[STATUS].[All]" allUniqueName="[Table1].[STATUS].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[Table1].[STATE].[All]" allUniqueName="[Table1].[STATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[Table1].[COUNTY].[All]" allUniqueName="[Table1].[COUNTY].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[ISO]" caption="ISO" attribute="1" defaultMemberUniqueName="[Table1].[ISO].[All]" allUniqueName="[Table1].[ISO].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_PLANT_ID]" caption="EIA_PLANT_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_PLANT_ID].[All]" allUniqueName="[Table1].[EIA_PLANT_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[QUEUE_ID]" caption="QUEUE_ID" attribute="1" defaultMemberUniqueName="[Table1].[QUEUE_ID].[All]" allUniqueName="[Table1].[QUEUE_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[EIA_GENERATOR_ID]" caption="EIA_GENERATOR_ID" attribute="1" defaultMemberUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" allUniqueName="[Table1].[EIA_GENERATOR_ID].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[FIRST_POWER_DATE]" caption="FIRST_POWER_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[FIRST_POWER_DATE].[All]" allUniqueName="[Table1].[FIRST_POWER_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[ASSUMED_RETIREMENT_DATE]" caption="ASSUMED_RETIREMENT_DATE" attribute="1" time="1" defaultMemberUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[ASSUMED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[REPORTED_RETIREMENT_DATE]" caption="REPORTED_RETIREMENT_DATE" attribute="1" defaultMemberUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" allUniqueName="[Table1].[REPORTED_RETIREMENT_DATE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[POINT_OF_INTERCONNECTION]" caption="POINT_OF_INTERCONNECTION" attribute="1" defaultMemberUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" allUniqueName="[Table1].[POINT_OF_INTERCONNECTION].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[TRANSMISSION_OWNER]" caption="TRANSMISSION_OWNER" attribute="1" defaultMemberUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" allUniqueName="[Table1].[TRANSMISSION_OWNER].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[Owner]" caption="Owner" attribute="1" defaultMemberUniqueName="[Table1].[Owner].[All]" allUniqueName="[Table1].[Owner].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table1].[SOURCE]" caption="SOURCE" attribute="1" defaultMemberUniqueName="[Table1].[SOURCE].[All]" allUniqueName="[Table1].[SOURCE].[All]" dimensionUniqueName="[Table1]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table1]" caption="__XL_Count Table1" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Count of TYPE]" caption="Count of TYPE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_ID]" caption="Count of GENERATOR_ID" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of GENERATOR_NAME]" caption="Count of GENERATOR_NAME" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of STATE]" caption="Count of STATE" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of COUNTY]" caption="Count of COUNTY" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of CAPACITY_MW]" caption="Sum of CAPACITY_MW" measure="1" displayFolder="" measureGroup="Table1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table1" uniqueName="[Table1]" caption="Table1"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table1" caption="Table1"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4B36F02-BB7A-493E-B237-4E5160A691D7}" name="PivotTable7" cacheId="230" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Capacity_MW" colHeaderCaption="Status">
+  <location ref="A72:C89" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotHierarchies count="27">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Ownership Research.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1E95E82-5838-484B-A299-14C65CD0CA2C}" name="PivotTable6" cacheId="175" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Capacity_MW" colHeaderCaption="Status">
+  <location ref="I51:J69" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of GENERATOR_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotHierarchies count="27">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="4"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Ownership Research.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B193E238-0AAD-42B8-B876-BD365CB252CC}" name="PivotTable5" cacheId="141" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="State" colHeaderCaption="Status">
+  <location ref="A51:F66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of GENERATOR_ID" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="5">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="13">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotHierarchies count="27">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="6"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="5"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Ownership Research.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{162FA481-0B46-4AC3-B9EF-E2B07F33BAB3}" name="PivotTable4" cacheId="130" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Generator Id" colHeaderCaption="Fuel Type">
+  <location ref="D21:H48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="25">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Generator " fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="7">
+      <pivotAreas count="1">
+        <pivotArea grandRow="1" axis="axisRow" fieldPosition="0"/>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotHierarchies count="27">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Generator "/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="0"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="3"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Ownership Research.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31788E25-FEC0-446F-A038-3F6817B2C8E5}" name="PivotTable3" cacheId="131" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="State">
+  <location ref="D4:E17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of GENERATOR_ID" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="27">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="6"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Ownership Research.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{398F24D9-1463-4AAE-B0C5-2C3A26AFF1C7}" name="PivotTable2" cacheId="132" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Country">
+  <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="25">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="25">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of GENERATOR_ID" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="27">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="7"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Ownership Research.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1463,34 +3331,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF475E2-DC51-48E4-8512-99DCEB093B53}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="45.33203125" customWidth="1"/>
-    <col min="17" max="17" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.5" customWidth="1"/>
+    <col min="17" max="17" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.44140625" customWidth="1"/>
     <col min="19" max="19" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +3417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +3455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +3496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1666,7 +3534,7 @@
         <v>58776</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1710,7 +3578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1754,7 +3622,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1798,7 +3666,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1842,7 +3710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1880,7 +3748,7 @@
         <v>58776</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1930,7 +3798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1974,7 +3842,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2018,7 +3886,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -2062,7 +3930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -2106,7 +3974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2150,7 +4018,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -2185,7 +4053,7 @@
         <v>46905</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -2229,7 +4097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -2267,7 +4135,7 @@
         <v>55228</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -2305,7 +4173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -2343,7 +4211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -2384,7 +4252,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -2425,7 +4293,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -2469,7 +4337,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>159</v>
       </c>
@@ -2513,7 +4381,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -2557,7 +4425,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -2603,16 +4471,1156 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50BC21D-87B4-4FC1-810D-4E87957BECB2}">
+  <dimension ref="A2:J89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="3.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D32" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D33" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D34" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D35" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D37" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D39" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D40" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D41" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D42" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13">
+        <v>1</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D43" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13">
+        <v>1</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13">
+        <v>1</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D45" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13">
+        <v>1</v>
+      </c>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D46" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13">
+        <v>1</v>
+      </c>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D47" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D48" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="13">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13">
+        <v>14</v>
+      </c>
+      <c r="G48" s="13">
+        <v>8</v>
+      </c>
+      <c r="H48" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I50" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="J51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
+      </c>
+      <c r="I52" s="12">
+        <v>200</v>
+      </c>
+      <c r="J52" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13">
+        <v>1</v>
+      </c>
+      <c r="D53" s="13">
+        <v>4</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13">
+        <v>5</v>
+      </c>
+      <c r="I53" s="12">
+        <v>20</v>
+      </c>
+      <c r="J53" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+      <c r="I54" s="12">
+        <v>211</v>
+      </c>
+      <c r="J54" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="13">
+        <v>2</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13">
+        <v>2</v>
+      </c>
+      <c r="I55" s="12">
+        <v>125</v>
+      </c>
+      <c r="J55" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13">
+        <v>2</v>
+      </c>
+      <c r="I56" s="12">
+        <v>100</v>
+      </c>
+      <c r="J56" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13">
+        <v>1</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13">
+        <v>1</v>
+      </c>
+      <c r="I57" s="12">
+        <v>160</v>
+      </c>
+      <c r="J57" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+      <c r="I58" s="12">
+        <v>7.25</v>
+      </c>
+      <c r="J58" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13">
+        <v>1</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13">
+        <v>1</v>
+      </c>
+      <c r="I59" s="12">
+        <v>199</v>
+      </c>
+      <c r="J59" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13">
+        <v>1</v>
+      </c>
+      <c r="F60" s="13">
+        <v>1</v>
+      </c>
+      <c r="I60" s="12">
+        <v>50</v>
+      </c>
+      <c r="J60" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+      <c r="I61" s="12">
+        <v>43</v>
+      </c>
+      <c r="J61" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13">
+        <v>4</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13">
+        <v>4</v>
+      </c>
+      <c r="I62" s="12">
+        <v>80</v>
+      </c>
+      <c r="J62" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13">
+        <v>1</v>
+      </c>
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13">
+        <v>2</v>
+      </c>
+      <c r="I63" s="12">
+        <v>167</v>
+      </c>
+      <c r="J63" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13">
+        <v>2</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13">
+        <v>1</v>
+      </c>
+      <c r="F64" s="13">
+        <v>3</v>
+      </c>
+      <c r="I64" s="12">
+        <v>5</v>
+      </c>
+      <c r="J64" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13">
+        <v>1</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13">
+        <v>1</v>
+      </c>
+      <c r="I65" s="12">
+        <v>14.04</v>
+      </c>
+      <c r="J65" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="13">
+        <v>4</v>
+      </c>
+      <c r="C66" s="13">
+        <v>6</v>
+      </c>
+      <c r="D66" s="13">
+        <v>13</v>
+      </c>
+      <c r="E66" s="13">
+        <v>2</v>
+      </c>
+      <c r="F66" s="13">
+        <v>25</v>
+      </c>
+      <c r="I66" s="12">
+        <v>10</v>
+      </c>
+      <c r="J66" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I67" s="12">
+        <v>250</v>
+      </c>
+      <c r="J67" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I68" s="12">
+        <v>134.66666666699999</v>
+      </c>
+      <c r="J68" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I69" s="12">
+        <v>150</v>
+      </c>
+      <c r="J69" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="10"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D4:E17">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="E48:H48">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:E66">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="F53:F65">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="J52:J69">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2628,6 +5636,15 @@
     <TaxCatchAll xmlns="8408e76a-1bc6-452a-b31e-bdf88c47849f"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2918,14 +5935,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662CEF6B-1546-4062-A190-48690B65504F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F5CF0B0-91D1-4B4D-A7D1-5C1535BBDA4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2939,6 +5948,14 @@
     <ds:schemaRef ds:uri="8408e76a-1bc6-452a-b31e-bdf88c47849f"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="d5f54e57-2935-4e4d-a887-275eea1ab103"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662CEF6B-1546-4062-A190-48690B65504F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
